--- a/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-44,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-35,57</t>
+          <t>-27,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-42,73</t>
+          <t>-13,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-39,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-41,96</t>
+          <t>-43,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-43,36</t>
+          <t>-63,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-38,83</t>
+          <t>-37,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-42,98</t>
+          <t>-43,48</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,19; -31,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -24,26</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -32,72</t>
+          <t>-57,29; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,59; -27,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -29,99</t>
+          <t>-86,08; -9,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -30,53</t>
+          <t>-88,92; -29,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -33,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -30,59</t>
+          <t>-69,59; -11,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -34,29</t>
+          <t>-68,52; -21,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-44,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-27,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,73%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-39,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,96%</t>
+          <t>-43,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-63,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-37,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-42,98%</t>
+          <t>-43,48%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,19; -31,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -24,26</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -32,72</t>
+          <t>-57,29; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,59; -27,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -29,99</t>
+          <t>-86,08; -9,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -30,53</t>
+          <t>-88,92; -29,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -33,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -30,59</t>
+          <t>-69,59; -11,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -34,29</t>
+          <t>-68,52; -21,12</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-38,05</t>
+          <t>-44,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-42,79</t>
+          <t>-35,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-39,43</t>
+          <t>-42,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-29,31</t>
+          <t>-39,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-41,61</t>
+          <t>-41,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-31,9</t>
+          <t>-43,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-33,95</t>
+          <t>-41,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-42,18</t>
+          <t>-38,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-35,76</t>
+          <t>-42,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -27,21</t>
+          <t>-58,19; -31,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -29,02</t>
+          <t>-48,39; -24,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -25,7</t>
+          <t>-54,29; -32,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,07; -18,68</t>
+          <t>-52,59; -27,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -28,13</t>
+          <t>-53,88; -29,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -19,58</t>
+          <t>-57,65; -30,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,38; -25,45</t>
+          <t>-51,94; -33,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -31,78</t>
+          <t>-47,13; -30,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-46,91; -26,64</t>
+          <t>-51,93; -34,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,05%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,79%</t>
+          <t>-35,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,43%</t>
+          <t>-42,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>-39,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,61%</t>
+          <t>-41,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-43,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>-41,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-35,76%</t>
+          <t>-42,98%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -27,21</t>
+          <t>-58,19; -31,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -29,02</t>
+          <t>-48,39; -24,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -25,7</t>
+          <t>-54,29; -32,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,07; -18,68</t>
+          <t>-52,59; -27,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -28,13</t>
+          <t>-53,88; -29,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -19,58</t>
+          <t>-57,65; -30,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,38; -25,45</t>
+          <t>-51,94; -33,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -31,78</t>
+          <t>-47,13; -30,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,91; -26,64</t>
+          <t>-51,93; -34,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-27,84</t>
+          <t>-50,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-44,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-43,2</t>
+          <t>-27,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-63,34</t>
+          <t>-55,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-37,81</t>
+          <t>-39,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-43,48</t>
+          <t>-50,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,1; -19,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-67,23; -36,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 0,0</t>
+          <t>-58,26; -32,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,46; -23,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-86,08; -9,46</t>
+          <t>-41,95; -16,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -29,68</t>
+          <t>-70,99; -32,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,49; -24,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -11,58</t>
+          <t>-49,75; -29,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -21,12</t>
+          <t>-60,1; -37,64</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>-50,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-44,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-36,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-43,2%</t>
+          <t>-27,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-63,34%</t>
+          <t>-55,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-37,81%</t>
+          <t>-39,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,48%</t>
+          <t>-50,52%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,1; -19,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-67,23; -36,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 0,0</t>
+          <t>-58,26; -32,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,46; -23,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-86,08; -9,46</t>
+          <t>-41,95; -16,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -29,68</t>
+          <t>-70,99; -32,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,49; -24,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -11,58</t>
+          <t>-49,75; -29,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -21,12</t>
+          <t>-60,1; -37,64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-29,88</t>
+          <t>-38,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-50,94</t>
+          <t>-42,79</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-44,62</t>
+          <t>-39,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-36,07</t>
+          <t>-29,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-27,91</t>
+          <t>-41,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-55,97</t>
+          <t>-31,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-32,82</t>
+          <t>-33,95</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-39,46</t>
+          <t>-42,18</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-50,52</t>
+          <t>-35,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -19,26</t>
+          <t>-51,02; -27,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -36,6</t>
+          <t>-59,78; -29,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -32,94</t>
+          <t>-53,97; -25,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-49,46; -23,94</t>
+          <t>-42,07; -18,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -16,67</t>
+          <t>-57,19; -28,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -32,52</t>
+          <t>-47,13; -19,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -24,49</t>
+          <t>-42,38; -25,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -29,04</t>
+          <t>-52,43; -31,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-60,1; -37,64</t>
+          <t>-46,91; -26,64</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-29,88%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-50,94%</t>
+          <t>-42,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-44,62%</t>
+          <t>-39,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>-29,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>-41,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-32,82%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-50,52%</t>
+          <t>-35,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -19,26</t>
+          <t>-51,02; -27,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -36,6</t>
+          <t>-59,78; -29,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -32,94</t>
+          <t>-53,97; -25,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,46; -23,94</t>
+          <t>-42,07; -18,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -16,67</t>
+          <t>-57,19; -28,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -32,52</t>
+          <t>-47,13; -19,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -24,49</t>
+          <t>-42,38; -25,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -29,04</t>
+          <t>-52,43; -31,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,1; -37,64</t>
+          <t>-46,91; -26,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,08; -9,46</t>
+          <t>-83,67; -9,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -11,58</t>
+          <t>-71,9; -10,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,08; -9,46</t>
+          <t>-83,67; -9,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -11,58</t>
+          <t>-71,9; -10,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-56,46; -27,19</t>
+          <t>-55,38; -26,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-77,93; -42,61</t>
+          <t>-79,15; -42,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,1; -17,38</t>
+          <t>-51,8; -15,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -17,42</t>
+          <t>-49,06; -18,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,54; -21,84</t>
+          <t>-58,97; -22,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -11,89</t>
+          <t>-45,17; -12,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -26,63</t>
+          <t>-48,89; -26,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -37,66</t>
+          <t>-65,34; -38,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,41; -18,18</t>
+          <t>-42,81; -18,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,46; -27,19</t>
+          <t>-55,38; -26,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,93; -42,61</t>
+          <t>-79,15; -42,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,1; -17,38</t>
+          <t>-51,8; -15,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -17,42</t>
+          <t>-49,06; -18,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,54; -21,84</t>
+          <t>-58,97; -22,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -11,89</t>
+          <t>-45,17; -12,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -26,63</t>
+          <t>-48,89; -26,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -37,66</t>
+          <t>-65,34; -38,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,41; -18,18</t>
+          <t>-42,81; -18,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-58,19; -31,56</t>
+          <t>-58,22; -31,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -24,26</t>
+          <t>-48,3; -24,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -32,72</t>
+          <t>-54,08; -32,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,59; -27,47</t>
+          <t>-52,33; -28,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -29,99</t>
+          <t>-54,59; -30,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -30,53</t>
+          <t>-57,22; -28,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -33,38</t>
+          <t>-50,38; -32,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -30,59</t>
+          <t>-47,31; -29,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -34,29</t>
+          <t>-52,02; -34,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,19; -31,56</t>
+          <t>-58,22; -31,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -24,26</t>
+          <t>-48,3; -24,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -32,72</t>
+          <t>-54,08; -32,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,59; -27,47</t>
+          <t>-52,33; -28,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -29,99</t>
+          <t>-54,59; -30,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -30,53</t>
+          <t>-57,22; -28,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -33,38</t>
+          <t>-50,38; -32,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -30,59</t>
+          <t>-47,31; -29,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -34,29</t>
+          <t>-52,02; -34,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -19,26</t>
+          <t>-43,2; -19,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -36,6</t>
+          <t>-66,69; -36,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -32,94</t>
+          <t>-58,9; -31,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,46; -23,94</t>
+          <t>-49,38; -23,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -16,67</t>
+          <t>-42,57; -15,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -32,52</t>
+          <t>-70,76; -34,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -24,49</t>
+          <t>-42,4; -25,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -29,04</t>
+          <t>-49,98; -28,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-60,1; -37,64</t>
+          <t>-59,84; -38,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -19,26</t>
+          <t>-43,2; -19,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -36,6</t>
+          <t>-66,69; -36,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -32,94</t>
+          <t>-58,9; -31,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,46; -23,94</t>
+          <t>-49,38; -23,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -16,67</t>
+          <t>-42,57; -15,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -32,52</t>
+          <t>-70,76; -34,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -24,49</t>
+          <t>-42,4; -25,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -29,04</t>
+          <t>-49,98; -28,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,1; -37,64</t>
+          <t>-59,84; -38,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -27,21</t>
+          <t>-49,8; -26,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -29,02</t>
+          <t>-56,69; -26,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -25,7</t>
+          <t>-53,94; -24,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-42,07; -18,68</t>
+          <t>-42,29; -18,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -28,13</t>
+          <t>-56,0; -25,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -19,58</t>
+          <t>-45,74; -19,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-42,38; -25,45</t>
+          <t>-43,04; -26,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -31,78</t>
+          <t>-52,4; -31,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-46,91; -26,64</t>
+          <t>-46,88; -26,35</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -27,21</t>
+          <t>-49,8; -26,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -29,02</t>
+          <t>-56,69; -26,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -25,7</t>
+          <t>-53,94; -24,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,07; -18,68</t>
+          <t>-42,29; -18,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -28,13</t>
+          <t>-56,0; -25,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -19,58</t>
+          <t>-45,74; -19,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,38; -25,45</t>
+          <t>-43,04; -26,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -31,78</t>
+          <t>-52,4; -31,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,91; -26,64</t>
+          <t>-46,88; -26,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-44,12; -31,68</t>
+          <t>-43,91; -31,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-52,45; -37,17</t>
+          <t>-52,12; -37,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-46,93; -33,2</t>
+          <t>-48,26; -34,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -26,63</t>
+          <t>-39,52; -27,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-46,55; -32,0</t>
+          <t>-45,57; -31,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-51,38; -35,55</t>
+          <t>-51,23; -34,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -30,87</t>
+          <t>-40,45; -31,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-46,92; -36,87</t>
+          <t>-46,98; -36,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -37,22</t>
+          <t>-47,5; -36,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,12; -31,68</t>
+          <t>-43,91; -31,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,45; -37,17</t>
+          <t>-52,12; -37,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,93; -33,2</t>
+          <t>-48,26; -34,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -26,63</t>
+          <t>-39,52; -27,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,55; -32,0</t>
+          <t>-45,57; -31,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,38; -35,55</t>
+          <t>-51,23; -34,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -30,87</t>
+          <t>-40,45; -31,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,92; -36,87</t>
+          <t>-46,98; -36,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -37,22</t>
+          <t>-47,5; -36,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-85,2; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 0,0</t>
+          <t>-60,05; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,67; -9,05</t>
+          <t>-85,43; -9,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -29,68</t>
+          <t>-89,48; -31,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -10,55</t>
+          <t>-72,93; -11,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -21,12</t>
+          <t>-67,53; -19,7</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-85,2; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 0,0</t>
+          <t>-60,05; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,67; -9,05</t>
+          <t>-85,43; -9,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -29,68</t>
+          <t>-89,48; -31,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,19 +826,19 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -10,55</t>
+          <t>-72,93; -11,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -21,12</t>
+          <t>-67,53; -19,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,38; -26,42</t>
+          <t>-55,52; -27,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-79,15; -42,39</t>
+          <t>-78,57; -41,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,8; -15,41</t>
+          <t>-57,19; -17,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -18,68</t>
+          <t>-48,99; -18,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,97; -22,25</t>
+          <t>-59,1; -21,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,17; -12,77</t>
+          <t>-42,72; -11,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,89; -26,25</t>
+          <t>-47,37; -25,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,34; -38,41</t>
+          <t>-64,32; -36,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,81; -18,69</t>
+          <t>-41,78; -19,05</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,38; -26,42</t>
+          <t>-55,52; -27,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,15; -42,39</t>
+          <t>-78,57; -41,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,8; -15,41</t>
+          <t>-57,19; -17,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -18,68</t>
+          <t>-48,99; -18,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,97; -22,25</t>
+          <t>-59,1; -21,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,17; -12,77</t>
+          <t>-42,72; -11,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,89; -26,25</t>
+          <t>-47,37; -25,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,34; -38,41</t>
+          <t>-64,32; -36,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,81; -18,69</t>
+          <t>-41,78; -19,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-58,22; -31,27</t>
+          <t>-57,41; -31,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-48,3; -24,11</t>
+          <t>-49,12; -23,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -32,38</t>
+          <t>-54,78; -32,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -28,37</t>
+          <t>-51,84; -28,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -30,6</t>
+          <t>-53,74; -30,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -28,84</t>
+          <t>-57,82; -30,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -32,9</t>
+          <t>-50,8; -32,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -29,66</t>
+          <t>-47,89; -30,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -34,73</t>
+          <t>-51,63; -33,76</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,22; -31,27</t>
+          <t>-57,41; -31,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,3; -24,11</t>
+          <t>-49,12; -23,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -32,38</t>
+          <t>-54,78; -32,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -28,37</t>
+          <t>-51,84; -28,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -30,6</t>
+          <t>-53,74; -30,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -28,84</t>
+          <t>-57,82; -30,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -32,9</t>
+          <t>-50,8; -32,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -29,66</t>
+          <t>-47,89; -30,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -34,73</t>
+          <t>-51,63; -33,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-43,2; -19,8</t>
+          <t>-42,01; -18,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -36,37</t>
+          <t>-64,5; -35,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-58,9; -31,63</t>
+          <t>-59,61; -30,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,38; -23,58</t>
+          <t>-50,63; -24,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,57; -15,33</t>
+          <t>-43,16; -16,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -34,11</t>
+          <t>-70,35; -31,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -25,28</t>
+          <t>-40,82; -24,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-49,98; -28,98</t>
+          <t>-49,59; -28,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -38,24</t>
+          <t>-61,35; -38,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,2; -19,8</t>
+          <t>-42,01; -18,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -36,37</t>
+          <t>-64,5; -35,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,9; -31,63</t>
+          <t>-59,61; -30,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,38; -23,58</t>
+          <t>-50,63; -24,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,57; -15,33</t>
+          <t>-43,16; -16,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -34,11</t>
+          <t>-70,35; -31,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -25,28</t>
+          <t>-40,82; -24,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,98; -28,98</t>
+          <t>-49,59; -28,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -38,24</t>
+          <t>-61,35; -38,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -26,11</t>
+          <t>-51,29; -27,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-56,69; -26,77</t>
+          <t>-57,31; -28,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,94; -24,84</t>
+          <t>-55,0; -25,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -18,14</t>
+          <t>-42,12; -18,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-56,0; -25,7</t>
+          <t>-57,07; -28,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -19,37</t>
+          <t>-46,38; -20,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-43,04; -26,09</t>
+          <t>-41,91; -25,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-52,4; -31,55</t>
+          <t>-53,3; -32,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-46,88; -26,35</t>
+          <t>-45,43; -25,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -26,11</t>
+          <t>-51,29; -27,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,69; -26,77</t>
+          <t>-57,31; -28,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,94; -24,84</t>
+          <t>-55,0; -25,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -18,14</t>
+          <t>-42,12; -18,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,0; -25,7</t>
+          <t>-57,07; -28,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -19,37</t>
+          <t>-46,38; -20,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,04; -26,09</t>
+          <t>-41,91; -25,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,4; -31,55</t>
+          <t>-53,3; -32,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,88; -26,35</t>
+          <t>-45,43; -25,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,84</t>
+          <t>-40,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-34,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,2</t>
+          <t>-56,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-63,34</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-37,81</t>
+          <t>-48,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-43,48</t>
+          <t>-32,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,34; -14,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-85,2; 0,0</t>
+          <t>-60,35; -25,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 0,0</t>
+          <t>-49,66; -20,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,1; -24,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-85,43; -9,45</t>
+          <t>-74,35; -39,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-89,48; -31,32</t>
+          <t>-51,62; -17,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,07; -22,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-72,93; -11,01</t>
+          <t>-60,31; -36,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-67,53; -19,7</t>
+          <t>-44,07; -21,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-25,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>-40,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-34,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-37,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,2%</t>
+          <t>-56,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-63,34%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-31,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,81%</t>
+          <t>-48,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-43,48%</t>
+          <t>-32,35%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,34; -14,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,2; 0,0</t>
+          <t>-60,35; -25,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 0,0</t>
+          <t>-49,66; -20,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,1; -24,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,43; -9,45</t>
+          <t>-74,35; -39,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,48; -31,32</t>
+          <t>-51,62; -17,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,07; -22,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,93; -11,01</t>
+          <t>-60,31; -36,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; -19,7</t>
+          <t>-44,07; -21,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-40,51</t>
+          <t>-39,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-61,06</t>
+          <t>-41,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-33,06</t>
+          <t>-48,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-31,57</t>
+          <t>-44,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,17</t>
+          <t>-35,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,39</t>
+          <t>-43,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-36,56</t>
+          <t>-41,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-51,37</t>
+          <t>-38,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-29,44</t>
+          <t>-45,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,52; -27,44</t>
+          <t>-52,59; -27,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-78,57; -41,47</t>
+          <t>-53,88; -29,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -17,59</t>
+          <t>-67,01; -33,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,99; -18,35</t>
+          <t>-58,19; -31,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,1; -21,94</t>
+          <t>-48,39; -24,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,72; -11,77</t>
+          <t>-54,72; -33,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,37; -25,84</t>
+          <t>-51,94; -33,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -36,3</t>
+          <t>-47,13; -30,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -19,05</t>
+          <t>-56,8; -36,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,51%</t>
+          <t>-39,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-41,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
+          <t>-48,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,57%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,17%</t>
+          <t>-35,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>-43,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-36,56%</t>
+          <t>-41,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,37%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>-45,41%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,52; -27,44</t>
+          <t>-52,59; -27,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,57; -41,47</t>
+          <t>-53,88; -29,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -17,59</t>
+          <t>-67,01; -33,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; -18,35</t>
+          <t>-58,19; -31,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,1; -21,94</t>
+          <t>-48,39; -24,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,72; -11,77</t>
+          <t>-54,72; -33,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; -25,84</t>
+          <t>-51,94; -33,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -36,3</t>
+          <t>-47,13; -30,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -19,05</t>
+          <t>-56,8; -36,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-44,27</t>
+          <t>-36,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-35,57</t>
+          <t>-27,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-42,73</t>
+          <t>-43,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-39,44</t>
+          <t>-29,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-41,96</t>
+          <t>-50,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-43,36</t>
+          <t>-44,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-41,84</t>
+          <t>-32,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,83</t>
+          <t>-39,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-42,98</t>
+          <t>-44,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-57,41; -31,39</t>
+          <t>-49,46; -23,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-49,12; -23,74</t>
+          <t>-41,95; -16,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -32,24</t>
+          <t>-70,92; -16,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -28,13</t>
+          <t>-44,1; -19,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -30,47</t>
+          <t>-67,23; -36,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,82; -30,65</t>
+          <t>-58,04; -32,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,8; -32,52</t>
+          <t>-41,49; -24,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -30,43</t>
+          <t>-49,75; -29,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-51,63; -33,76</t>
+          <t>-58,58; -25,25</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,27%</t>
+          <t>-36,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-27,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,73%</t>
+          <t>-43,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,44%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,96%</t>
+          <t>-50,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-44,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-39,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,98%</t>
+          <t>-44,06%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,41; -31,39</t>
+          <t>-49,46; -23,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,12; -23,74</t>
+          <t>-41,95; -16,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -32,24</t>
+          <t>-70,92; -16,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -28,13</t>
+          <t>-44,1; -19,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -30,47</t>
+          <t>-67,23; -36,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,82; -30,65</t>
+          <t>-58,04; -32,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,8; -32,52</t>
+          <t>-41,49; -24,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -30,43</t>
+          <t>-49,75; -29,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,63; -33,76</t>
+          <t>-58,58; -25,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-29,88</t>
+          <t>-29,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-50,94</t>
+          <t>-41,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-44,62</t>
+          <t>-31,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-36,07</t>
+          <t>-38,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-27,91</t>
+          <t>-42,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-55,97</t>
+          <t>-39,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-32,82</t>
+          <t>-33,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-39,46</t>
+          <t>-42,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-50,52</t>
+          <t>-35,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-42,01; -18,87</t>
+          <t>-42,07; -18,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-64,5; -35,79</t>
+          <t>-57,19; -28,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-59,61; -30,44</t>
+          <t>-47,22; -19,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,63; -24,25</t>
+          <t>-51,02; -27,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -16,64</t>
+          <t>-59,78; -29,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,35; -31,21</t>
+          <t>-53,75; -25,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-40,82; -24,77</t>
+          <t>-42,38; -25,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -28,86</t>
+          <t>-52,43; -31,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-61,35; -38,0</t>
+          <t>-46,78; -26,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,88%</t>
+          <t>-29,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,94%</t>
+          <t>-41,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-44,62%</t>
+          <t>-31,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>-42,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>-39,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,82%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-50,52%</t>
+          <t>-35,63%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,01; -18,87</t>
+          <t>-42,07; -18,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,5; -35,79</t>
+          <t>-57,19; -28,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,61; -30,44</t>
+          <t>-47,22; -19,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,63; -24,25</t>
+          <t>-51,02; -27,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -16,64</t>
+          <t>-59,78; -29,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,35; -31,21</t>
+          <t>-53,75; -25,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,82; -24,77</t>
+          <t>-42,38; -25,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -28,86</t>
+          <t>-52,43; -31,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,35; -38,0</t>
+          <t>-46,78; -26,52</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-38,05</t>
+          <t>-32,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-42,79</t>
+          <t>-38,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-39,43</t>
+          <t>-41,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-29,31</t>
+          <t>-37,6</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-41,61</t>
+          <t>-44,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-31,9</t>
+          <t>-40,97</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-33,95</t>
+          <t>-35,28</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-42,18</t>
+          <t>-41,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-35,76</t>
+          <t>-41,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-51,29; -27,5</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-57,31; -28,29</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-55,0; -25,88</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -18,51</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-57,07; -28,06</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -20,11</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -25,34</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-53,3; -32,89</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-45,43; -25,81</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-38,05%</t>
+          <t>-32,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-42,79%</t>
+          <t>-38,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-39,43%</t>
+          <t>-41,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>-37,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-41,61%</t>
+          <t>-44,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>-35,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-41,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-35,76%</t>
+          <t>-41,21%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,29; -27,5</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,31; -28,29</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,0; -25,88</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -18,51</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,07; -28,06</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -20,11</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -25,34</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,3; -32,89</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-45,43; -25,81</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-37,6</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-44,86</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-40,79</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-32,77</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-38,64</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-44,36</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-35,28</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-41,7</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-42,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-43,94; -31,16</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-52,53; -37,48</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; -34,08</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -25,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; -31,5</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; -35,72</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; -31,36</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; -36,71</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-48,03; -37,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-37,6%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-44,86%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-40,79%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-32,77%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-38,64%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-44,36%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-35,28%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-41,7%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-42,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-43,94; -31,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-52,53; -37,48</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; -34,08</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -25,94</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; -31,5</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; -35,72</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; -31,36</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; -36,71</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-48,03; -37,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
